--- a/central archive OTD/test_file_new.xlsx
+++ b/central archive OTD/test_file_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5610" yWindow="360" windowWidth="23010" windowHeight="8970" tabRatio="717"/>
+    <workbookView xWindow="6540" yWindow="360" windowWidth="23010" windowHeight="8970" tabRatio="717"/>
   </bookViews>
   <sheets>
     <sheet name="16.07.2022" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>Город</t>
   </si>
@@ -98,6 +98,18 @@
   </si>
   <si>
     <t>АБВГ.123456.011</t>
+  </si>
+  <si>
+    <t>АБВГ.123456.013</t>
+  </si>
+  <si>
+    <t>Кронштейн</t>
+  </si>
+  <si>
+    <t>Хьюстон</t>
+  </si>
+  <si>
+    <t>NASA</t>
   </si>
 </sst>
 </file>
@@ -523,11 +535,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="49.9" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -752,6 +764,26 @@
       </c>
       <c r="F11" s="11">
         <v>44042</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="13">
+        <v>66</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="11">
+        <v>42923</v>
       </c>
     </row>
   </sheetData>
